--- a/Znode9X/TestData/ProductAttributes/ProductAttribute(AddNew)TestData  Main.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttribute(AddNew)TestData  Main.xlsx
@@ -727,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +806,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -861,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +960,30 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WEA198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,10 +2961,10 @@
       <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="62">
         <v>48</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -2947,10 +2989,10 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="62">
         <v>49</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -2975,10 +3017,10 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="62">
         <v>50</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -3003,10 +3045,10 @@
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="62">
         <v>51</v>
       </c>
       <c r="C52" s="27" t="s">
@@ -3031,10 +3073,10 @@
       <c r="J52" s="28"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="62">
         <v>52</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -3059,10 +3101,10 @@
       <c r="J53" s="28"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="62">
         <v>53</v>
       </c>
       <c r="C54" s="27" t="s">
@@ -3087,10 +3129,10 @@
       <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="62">
         <v>54</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -3115,10 +3157,10 @@
       <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="62">
         <v>55</v>
       </c>
       <c r="C56" s="27" t="s">
@@ -3143,10 +3185,10 @@
       <c r="J56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="62">
         <v>56</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -3171,10 +3213,10 @@
       <c r="J57" s="27"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="62">
         <v>57</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -3199,10 +3241,10 @@
       <c r="J58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="69">
         <v>58</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3227,10 +3269,10 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="69">
         <v>59</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3255,10 +3297,10 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="69">
         <v>60</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -3283,10 +3325,10 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="69">
         <v>61</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3311,10 +3353,10 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="69">
         <v>62</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3339,10 +3381,10 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="69">
         <v>63</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -3367,10 +3409,10 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="69">
         <v>64</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -3395,10 +3437,10 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="69">
         <v>65</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3423,10 +3465,10 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="69">
         <v>66</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3451,10 +3493,10 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="69">
         <v>67</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3479,10 +3521,10 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="69">
         <v>68</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -3507,10 +3549,10 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="69">
         <v>69</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -3535,10 +3577,10 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="13">
         <v>70</v>
       </c>
       <c r="C71" s="41" t="s">
@@ -3563,10 +3605,10 @@
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="13">
         <v>71</v>
       </c>
       <c r="C72" s="41" t="s">
@@ -3591,10 +3633,10 @@
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="13">
         <v>72</v>
       </c>
       <c r="C73" s="41" t="s">
@@ -3619,10 +3661,10 @@
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="13">
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -3647,10 +3689,10 @@
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="13">
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -3675,10 +3717,10 @@
       <c r="J75" s="14"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="13">
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -3703,10 +3745,10 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="13">
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -3731,10 +3773,10 @@
       <c r="J77" s="14"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="13">
         <v>77</v>
       </c>
       <c r="C78" s="41" t="s">
@@ -3759,10 +3801,10 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="13">
         <v>78</v>
       </c>
       <c r="C79" s="41" t="s">
@@ -3787,10 +3829,10 @@
       <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="60">
         <v>79</v>
       </c>
       <c r="C80" s="54" t="s">
@@ -3815,10 +3857,10 @@
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="60">
         <v>80</v>
       </c>
       <c r="C81" s="54" t="s">
@@ -3843,10 +3885,10 @@
       <c r="J81" s="54"/>
     </row>
     <row r="82" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="60">
         <v>81</v>
       </c>
       <c r="C82" s="54" t="s">
@@ -3871,10 +3913,10 @@
       <c r="J82" s="54"/>
     </row>
     <row r="83" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="60">
         <v>82</v>
       </c>
       <c r="C83" s="54" t="s">
@@ -3899,10 +3941,10 @@
       <c r="J83" s="54"/>
     </row>
     <row r="84" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="60">
         <v>83</v>
       </c>
       <c r="C84" s="54" t="s">
@@ -3927,10 +3969,10 @@
       <c r="J84" s="54"/>
     </row>
     <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="60">
         <v>84</v>
       </c>
       <c r="C85" s="54" t="s">
@@ -3955,10 +3997,10 @@
       <c r="J85" s="54"/>
     </row>
     <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="60">
         <v>85</v>
       </c>
       <c r="C86" s="54" t="s">
@@ -3983,10 +4025,10 @@
       <c r="J86" s="54"/>
     </row>
     <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="60">
         <v>86</v>
       </c>
       <c r="C87" s="54" t="s">
@@ -4011,10 +4053,10 @@
       <c r="J87" s="54"/>
     </row>
     <row r="88" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="60">
         <v>87</v>
       </c>
       <c r="C88" s="54" t="s">
@@ -4039,10 +4081,10 @@
       <c r="J88" s="54"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="10">
+      <c r="A89" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="61">
         <v>88</v>
       </c>
       <c r="C89" s="55" t="s">
@@ -4067,10 +4109,10 @@
       <c r="J89" s="55"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="10">
+      <c r="A90" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="61">
         <v>89</v>
       </c>
       <c r="C90" s="55" t="s">
@@ -4095,10 +4137,10 @@
       <c r="J90" s="55"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="10">
+      <c r="A91" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="61">
         <v>90</v>
       </c>
       <c r="C91" s="55" t="s">
@@ -4123,10 +4165,10 @@
       <c r="J91" s="55"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="10">
+      <c r="A92" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="61">
         <v>91</v>
       </c>
       <c r="C92" s="55" t="s">
@@ -4151,10 +4193,10 @@
       <c r="J92" s="55"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="10">
+      <c r="A93" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="61">
         <v>92</v>
       </c>
       <c r="C93" s="55" t="s">
@@ -4179,10 +4221,10 @@
       <c r="J93" s="55"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B94" s="10">
+      <c r="A94" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="61">
         <v>93</v>
       </c>
       <c r="C94" s="55" t="s">
@@ -4207,10 +4249,10 @@
       <c r="J94" s="55"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="10">
+      <c r="A95" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="61">
         <v>94</v>
       </c>
       <c r="C95" s="55" t="s">
@@ -4235,10 +4277,10 @@
       <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="29">
         <v>95</v>
       </c>
       <c r="C96" s="48" t="s">
@@ -4263,10 +4305,10 @@
       <c r="J96" s="48"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="29">
         <v>96</v>
       </c>
       <c r="C97" s="48" t="s">
@@ -4291,10 +4333,10 @@
       <c r="J97" s="48"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="29">
         <v>97</v>
       </c>
       <c r="C98" s="48" t="s">
@@ -4319,10 +4361,10 @@
       <c r="J98" s="48"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="29">
         <v>98</v>
       </c>
       <c r="C99" s="48" t="s">
@@ -4347,10 +4389,10 @@
       <c r="J99" s="48"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="29">
         <v>99</v>
       </c>
       <c r="C100" s="48" t="s">
@@ -4375,10 +4417,10 @@
       <c r="J100" s="48"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="29">
         <v>100</v>
       </c>
       <c r="C101" s="48" t="s">
@@ -4403,10 +4445,10 @@
       <c r="J101" s="48"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="29">
         <v>101</v>
       </c>
       <c r="C102" s="48" t="s">
@@ -4431,10 +4473,10 @@
       <c r="J102" s="48"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="29">
         <v>102</v>
       </c>
       <c r="C103" s="48" t="s">
@@ -4459,10 +4501,10 @@
       <c r="J103" s="48"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="29">
         <v>103</v>
       </c>
       <c r="C104" s="48" t="s">
@@ -4487,10 +4529,10 @@
       <c r="J104" s="48"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="29">
         <v>104</v>
       </c>
       <c r="C105" s="48" t="s">
@@ -4515,10 +4557,10 @@
       <c r="J105" s="48"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="29">
         <v>105</v>
       </c>
       <c r="C106" s="48" t="s">
@@ -4543,10 +4585,10 @@
       <c r="J106" s="48"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="29">
         <v>106</v>
       </c>
       <c r="C107" s="48" t="s">
@@ -4571,10 +4613,10 @@
       <c r="J107" s="48"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="29">
         <v>107</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -4599,172 +4641,172 @@
       <c r="J108" s="48"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="16">
         <v>108</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D109" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="48" t="s">
+      <c r="D109" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F109" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
+      <c r="F109" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="16">
         <v>109</v>
       </c>
-      <c r="C110" s="48" t="s">
+      <c r="C110" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D110" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="48" t="s">
+      <c r="E110" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F110" s="48" t="s">
+      <c r="F110" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G110" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
+      <c r="G110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="16">
         <v>110</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="48" t="s">
+      <c r="E111" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G111" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
+      <c r="G111" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
     </row>
     <row r="112" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="16">
         <v>111</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D112" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E112" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
+      <c r="G112" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="1:15679" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="16">
         <v>112</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C113" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D113" s="48" t="s">
+      <c r="D113" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="48" t="s">
+      <c r="E113" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F113" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G113" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="48"/>
-      <c r="J113" s="48"/>
+      <c r="F113" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
     </row>
     <row r="114" spans="1:15679" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="16">
         <v>113</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D114" s="48" t="s">
+      <c r="D114" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="48" t="s">
+      <c r="E114" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G114" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
+      <c r="G114" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -51498,1600 +51540,1600 @@
       </c>
     </row>
     <row r="115" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="16">
         <v>114</v>
       </c>
-      <c r="C115" s="48" t="s">
+      <c r="C115" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D115" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="48" t="s">
+      <c r="D115" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F115" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
+      <c r="F115" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
     </row>
     <row r="116" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="16">
         <v>115</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D116" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="48" t="s">
+      <c r="E116" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G116" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
+      <c r="G116" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
     </row>
     <row r="117" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="16">
         <v>116</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D117" s="48" t="s">
+      <c r="D117" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="48" t="s">
+      <c r="E117" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="48" t="s">
+      <c r="F117" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G117" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="48"/>
-      <c r="J117" s="48"/>
+      <c r="G117" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
     </row>
     <row r="118" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="16">
         <v>117</v>
       </c>
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D118" s="48" t="s">
+      <c r="D118" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="48" t="s">
+      <c r="E118" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F118" s="48" t="s">
+      <c r="F118" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G118" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
+      <c r="G118" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
     </row>
     <row r="119" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="16">
         <v>118</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="48" t="s">
+      <c r="D119" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F119" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
+      <c r="F119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
     </row>
     <row r="120" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="16">
         <v>119</v>
       </c>
-      <c r="C120" s="48" t="s">
+      <c r="C120" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D120" s="48" t="s">
+      <c r="D120" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="48" t="s">
+      <c r="E120" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F120" s="48" t="s">
+      <c r="F120" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G120" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="48"/>
-      <c r="J120" s="48"/>
+      <c r="G120" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
     </row>
     <row r="121" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="16">
         <v>120</v>
       </c>
-      <c r="C121" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F121" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
+      <c r="C121" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
     </row>
     <row r="122" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="65">
         <v>121</v>
       </c>
-      <c r="C122" s="48" t="s">
+      <c r="C122" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="48" t="s">
+      <c r="D122" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F122" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
+      <c r="F122" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
     </row>
     <row r="123" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="65">
         <v>122</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="48" t="s">
+      <c r="D123" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E123" s="48" t="s">
+      <c r="E123" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F123" s="48" t="s">
+      <c r="F123" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="G123" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
+      <c r="G123" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
     </row>
     <row r="124" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="65">
         <v>123</v>
       </c>
-      <c r="C124" s="48" t="s">
+      <c r="C124" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="48" t="s">
+      <c r="D124" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="48" t="s">
+      <c r="E124" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F124" s="48" t="s">
+      <c r="F124" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="G124" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
+      <c r="G124" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
     </row>
     <row r="125" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="65">
         <v>124</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C125" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D125" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="48" t="s">
+      <c r="D125" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="F125" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
+      <c r="F125" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
     </row>
     <row r="126" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="65">
         <v>125</v>
       </c>
-      <c r="C126" s="48" t="s">
+      <c r="C126" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D126" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="48" t="s">
+      <c r="D126" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="F126" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
+      <c r="F126" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
     </row>
     <row r="127" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="65">
         <v>126</v>
       </c>
-      <c r="C127" s="48" t="s">
+      <c r="C127" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D127" s="48" t="s">
+      <c r="D127" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E127" s="48" t="s">
+      <c r="E127" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F127" s="48" t="s">
+      <c r="F127" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="G127" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
+      <c r="G127" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="66"/>
+      <c r="J127" s="66"/>
     </row>
     <row r="128" spans="1:15679" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="65">
         <v>127</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D128" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="48" t="s">
+      <c r="E128" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="F128" s="48" t="s">
+      <c r="F128" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="G128" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
+      <c r="G128" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="66"/>
+      <c r="J128" s="66"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B129" s="10">
-        <v>128</v>
-      </c>
-      <c r="C129" s="48" t="s">
+      <c r="B129" s="65">
+        <v>128</v>
+      </c>
+      <c r="C129" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D129" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="48" t="s">
+      <c r="D129" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F129" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="48"/>
-      <c r="J129" s="48"/>
+      <c r="F129" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="66"/>
+      <c r="J129" s="66"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="65">
         <v>129</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="48" t="s">
+      <c r="D130" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E130" s="48" t="s">
+      <c r="E130" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F130" s="48" t="s">
+      <c r="F130" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G130" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130" s="48"/>
-      <c r="J130" s="48"/>
+      <c r="G130" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="65">
         <v>130</v>
       </c>
-      <c r="C131" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F131" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" s="48"/>
-      <c r="J131" s="48"/>
+      <c r="C131" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F131" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="66"/>
+      <c r="J131" s="66"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="19">
         <v>131</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C132" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D132" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="48" t="s">
+      <c r="D132" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F132" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" s="48"/>
-      <c r="J132" s="48"/>
+      <c r="F132" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="19">
         <v>132</v>
       </c>
-      <c r="C133" s="48" t="s">
+      <c r="C133" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D133" s="48" t="s">
+      <c r="D133" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="48" t="s">
+      <c r="E133" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F133" s="48" t="s">
+      <c r="F133" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G133" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
+      <c r="G133" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="19">
         <v>133</v>
       </c>
-      <c r="C134" s="48" t="s">
+      <c r="C134" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="48" t="s">
+      <c r="D134" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="48" t="s">
+      <c r="E134" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F134" s="48" t="s">
+      <c r="F134" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="G134" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
+      <c r="G134" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="19">
         <v>134</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D135" s="48" t="s">
+      <c r="D135" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E135" s="48" t="s">
+      <c r="E135" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="48" t="s">
+      <c r="F135" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="G135" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="48"/>
-      <c r="J135" s="48"/>
+      <c r="G135" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="19">
         <v>135</v>
       </c>
-      <c r="C136" s="48" t="s">
+      <c r="C136" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="48" t="s">
+      <c r="D136" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F136" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="48"/>
-      <c r="J136" s="48"/>
+      <c r="F136" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="19">
         <v>136</v>
       </c>
-      <c r="C137" s="48" t="s">
+      <c r="C137" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D137" s="48" t="s">
+      <c r="D137" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="48" t="s">
+      <c r="E137" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F137" s="48" t="s">
+      <c r="F137" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G137" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="48"/>
-      <c r="J137" s="48"/>
+      <c r="G137" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="19">
         <v>137</v>
       </c>
-      <c r="C138" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F138" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="48"/>
-      <c r="J138" s="48"/>
+      <c r="C138" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="39"/>
+      <c r="J138" s="39"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="67">
         <v>138</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="C139" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D139" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="48" t="s">
+      <c r="D139" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F139" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" s="48"/>
-      <c r="J139" s="48"/>
+      <c r="F139" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="68"/>
+      <c r="J139" s="68"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="67">
         <v>139</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D140" s="48" t="s">
+      <c r="D140" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E140" s="48" t="s">
+      <c r="E140" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="48" t="s">
+      <c r="F140" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="G140" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48"/>
+      <c r="G140" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="68"/>
+      <c r="J140" s="68"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="67">
         <v>140</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="C141" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="48" t="s">
+      <c r="D141" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="48" t="s">
+      <c r="E141" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F141" s="48" t="s">
+      <c r="F141" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="G141" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="48"/>
-      <c r="J141" s="48"/>
+      <c r="G141" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="68"/>
+      <c r="J141" s="68"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="67">
         <v>141</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="D142" s="48" t="s">
+      <c r="D142" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="48" t="s">
+      <c r="E142" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="F142" s="48" t="s">
+      <c r="F142" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="G142" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="48"/>
-      <c r="J142" s="48"/>
+      <c r="G142" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="68"/>
+      <c r="J142" s="68"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="67">
         <v>142</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="48" t="s">
+      <c r="D143" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F143" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="48"/>
-      <c r="J143" s="48"/>
+      <c r="F143" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="68"/>
+      <c r="J143" s="68"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="67">
         <v>143</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C144" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D144" s="48" t="s">
+      <c r="D144" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="48" t="s">
+      <c r="E144" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F144" s="48" t="s">
+      <c r="F144" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="G144" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="48"/>
-      <c r="J144" s="48"/>
+      <c r="G144" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="67">
         <v>144</v>
       </c>
-      <c r="C145" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F145" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="48"/>
-      <c r="J145" s="48"/>
+      <c r="C145" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="68"/>
+      <c r="J145" s="68"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="63">
         <v>145</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C146" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D146" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="48" t="s">
+      <c r="D146" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" s="48"/>
-      <c r="J146" s="48"/>
+      <c r="F146" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="64"/>
+      <c r="J146" s="64"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="63">
         <v>146</v>
       </c>
-      <c r="C147" s="48" t="s">
+      <c r="C147" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D147" s="48" t="s">
+      <c r="D147" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E147" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F147" s="48" t="s">
+      <c r="F147" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G147" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" s="48"/>
-      <c r="J147" s="48"/>
+      <c r="G147" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="64"/>
+      <c r="J147" s="64"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="63">
         <v>147</v>
       </c>
-      <c r="C148" s="48" t="s">
+      <c r="C148" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D148" s="48" t="s">
+      <c r="D148" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E148" s="48" t="s">
+      <c r="E148" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F148" s="48" t="s">
+      <c r="F148" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="G148" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" s="48"/>
-      <c r="J148" s="48"/>
+      <c r="G148" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="64"/>
+      <c r="J148" s="64"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="63">
         <v>148</v>
       </c>
-      <c r="C149" s="48" t="s">
+      <c r="C149" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D149" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" s="48" t="s">
+      <c r="D149" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="F149" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="48"/>
-      <c r="J149" s="48"/>
+      <c r="F149" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="64"/>
+      <c r="J149" s="64"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="63">
         <v>149</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D150" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="48" t="s">
+      <c r="D150" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F150" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" s="48"/>
-      <c r="J150" s="48"/>
+      <c r="F150" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="64"/>
+      <c r="J150" s="64"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="63">
         <v>150</v>
       </c>
-      <c r="C151" s="48" t="s">
+      <c r="C151" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="48" t="s">
+      <c r="D151" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="F151" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="48"/>
-      <c r="J151" s="48"/>
+      <c r="F151" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="64"/>
+      <c r="J151" s="64"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="63">
         <v>151</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="48" t="s">
+      <c r="D152" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F152" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="48"/>
-      <c r="J152" s="48"/>
+      <c r="F152" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="64"/>
+      <c r="J152" s="64"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="63">
         <v>152</v>
       </c>
-      <c r="C153" s="48" t="s">
+      <c r="C153" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D153" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="48" t="s">
+      <c r="D153" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="F153" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" s="48"/>
-      <c r="J153" s="48"/>
+      <c r="F153" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="64"/>
+      <c r="J153" s="64"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="63">
         <v>153</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D154" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="48" t="s">
+      <c r="D154" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F154" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" s="48"/>
-      <c r="J154" s="48"/>
+      <c r="F154" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="63">
         <v>154</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D155" s="48" t="s">
+      <c r="D155" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E155" s="48" t="s">
+      <c r="E155" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F155" s="48" t="s">
+      <c r="F155" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="G155" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" s="48"/>
-      <c r="J155" s="48"/>
+      <c r="G155" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="64"/>
+      <c r="J155" s="64"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="63">
         <v>155</v>
       </c>
-      <c r="C156" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F156" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" s="48"/>
-      <c r="J156" s="48"/>
+      <c r="C156" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F156" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" s="64"/>
+      <c r="J156" s="64"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="16">
         <v>156</v>
       </c>
-      <c r="C157" s="48" t="s">
+      <c r="C157" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D157" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="48" t="s">
+      <c r="D157" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F157" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" s="48"/>
-      <c r="J157" s="48"/>
+      <c r="F157" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" s="34"/>
+      <c r="J157" s="34"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="16">
         <v>157</v>
       </c>
-      <c r="C158" s="48" t="s">
+      <c r="C158" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E158" s="48" t="s">
+      <c r="E158" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F158" s="48" t="s">
+      <c r="F158" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G158" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" s="48"/>
-      <c r="J158" s="48"/>
+      <c r="G158" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" s="34"/>
+      <c r="J158" s="34"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="16">
         <v>158</v>
       </c>
-      <c r="C159" s="48" t="s">
+      <c r="C159" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D159" s="48" t="s">
+      <c r="D159" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E159" s="48" t="s">
+      <c r="E159" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F159" s="48" t="s">
+      <c r="F159" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G159" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48"/>
+      <c r="G159" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" s="34"/>
+      <c r="J159" s="34"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="16">
         <v>159</v>
       </c>
-      <c r="C160" s="48" t="s">
+      <c r="C160" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D160" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="48" t="s">
+      <c r="D160" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F160" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
+      <c r="F160" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="34"/>
+      <c r="J160" s="34"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="16">
         <v>160</v>
       </c>
-      <c r="C161" s="48" t="s">
+      <c r="C161" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D161" s="48" t="s">
+      <c r="D161" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E161" s="48" t="s">
+      <c r="E161" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F161" s="48" t="s">
+      <c r="F161" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G161" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" s="48"/>
-      <c r="J161" s="48"/>
+      <c r="G161" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="16">
         <v>161</v>
       </c>
-      <c r="C162" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F162" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" s="48"/>
-      <c r="J162" s="48"/>
+      <c r="C162" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F162" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" s="34"/>
+      <c r="J162" s="34"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="13">
         <v>162</v>
       </c>
-      <c r="C163" s="48" t="s">
+      <c r="C163" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D163" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" s="48" t="s">
+      <c r="D163" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F163" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" s="48"/>
-      <c r="J163" s="48"/>
+      <c r="F163" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" s="41"/>
+      <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="13">
         <v>163</v>
       </c>
-      <c r="C164" s="48" t="s">
+      <c r="C164" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="D164" s="48" t="s">
+      <c r="D164" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E164" s="48" t="s">
+      <c r="E164" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F164" s="48" t="s">
+      <c r="F164" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="G164" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48"/>
+      <c r="G164" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="13">
         <v>164</v>
       </c>
-      <c r="C165" s="48" t="s">
+      <c r="C165" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D165" s="48" t="s">
+      <c r="D165" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E165" s="48" t="s">
+      <c r="E165" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F165" s="48" t="s">
+      <c r="F165" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="G165" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48"/>
+      <c r="G165" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="13">
         <v>165</v>
       </c>
-      <c r="C166" s="48" t="s">
+      <c r="C166" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D166" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" s="48" t="s">
+      <c r="D166" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F166" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
+      <c r="F166" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="13">
         <v>166</v>
       </c>
-      <c r="C167" s="48" t="s">
+      <c r="C167" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D167" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="48" t="s">
+      <c r="D167" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F167" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I167" s="48"/>
-      <c r="J167" s="48"/>
+      <c r="F167" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="13">
         <v>167</v>
       </c>
-      <c r="C168" s="48" t="s">
+      <c r="C168" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D168" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="48" t="s">
+      <c r="D168" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="F168" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H168" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" s="48"/>
-      <c r="J168" s="48"/>
+      <c r="F168" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="13">
         <v>168</v>
       </c>
-      <c r="C169" s="48" t="s">
+      <c r="C169" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" s="48" t="s">
+      <c r="D169" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F169" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48"/>
+      <c r="F169" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="13">
         <v>169</v>
       </c>
-      <c r="C170" s="48" t="s">
+      <c r="C170" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D170" s="48" t="s">
+      <c r="D170" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="48" t="s">
+      <c r="E170" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F170" s="48" t="s">
+      <c r="F170" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G170" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H170" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" s="48"/>
-      <c r="J170" s="48"/>
+      <c r="G170" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="13">
         <v>170</v>
       </c>
-      <c r="C171" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D171" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F171" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H171" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48"/>
+      <c r="C171" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F171" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
@@ -53100,26 +53142,26 @@
       <c r="B172" s="10">
         <v>171</v>
       </c>
-      <c r="C172" s="48" t="s">
+      <c r="C172" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D172" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="48" t="s">
+      <c r="D172" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F172" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I172" s="48"/>
-      <c r="J172" s="48"/>
+      <c r="F172" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
@@ -53128,26 +53170,26 @@
       <c r="B173" s="10">
         <v>172</v>
       </c>
-      <c r="C173" s="48" t="s">
+      <c r="C173" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E173" s="48" t="s">
+      <c r="E173" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="48" t="s">
+      <c r="F173" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G173" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I173" s="48"/>
-      <c r="J173" s="48"/>
+      <c r="G173" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
@@ -53156,26 +53198,26 @@
       <c r="B174" s="10">
         <v>173</v>
       </c>
-      <c r="C174" s="48" t="s">
+      <c r="C174" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="48" t="s">
+      <c r="D174" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E174" s="48" t="s">
+      <c r="E174" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="48" t="s">
+      <c r="F174" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="G174" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I174" s="48"/>
-      <c r="J174" s="48"/>
+      <c r="G174" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I174" s="42"/>
+      <c r="J174" s="42"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
@@ -53184,26 +53226,26 @@
       <c r="B175" s="10">
         <v>174</v>
       </c>
-      <c r="C175" s="48" t="s">
+      <c r="C175" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D175" s="48" t="s">
+      <c r="D175" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E175" s="48" t="s">
+      <c r="E175" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="F175" s="48" t="s">
+      <c r="F175" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="G175" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I175" s="48"/>
-      <c r="J175" s="48"/>
+      <c r="G175" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
@@ -53212,26 +53254,26 @@
       <c r="B176" s="10">
         <v>175</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D176" s="48" t="s">
+      <c r="D176" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E176" s="48" t="s">
+      <c r="E176" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F176" s="48" t="s">
+      <c r="F176" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="G176" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I176" s="48"/>
-      <c r="J176" s="48"/>
+      <c r="G176" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
@@ -53240,26 +53282,26 @@
       <c r="B177" s="10">
         <v>176</v>
       </c>
-      <c r="C177" s="48" t="s">
+      <c r="C177" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D177" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" s="48" t="s">
+      <c r="D177" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="F177" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I177" s="48"/>
-      <c r="J177" s="48"/>
+      <c r="F177" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" s="42"/>
+      <c r="J177" s="42"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
@@ -53268,26 +53310,26 @@
       <c r="B178" s="10">
         <v>177</v>
       </c>
-      <c r="C178" s="48" t="s">
+      <c r="C178" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" s="48" t="s">
+      <c r="D178" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F178" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I178" s="48"/>
-      <c r="J178" s="48"/>
+      <c r="F178" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
@@ -53296,26 +53338,26 @@
       <c r="B179" s="10">
         <v>178</v>
       </c>
-      <c r="C179" s="48" t="s">
+      <c r="C179" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D179" s="48" t="s">
+      <c r="D179" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E179" s="48" t="s">
+      <c r="E179" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F179" s="48" t="s">
+      <c r="F179" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G179" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I179" s="48"/>
-      <c r="J179" s="48"/>
+      <c r="G179" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
@@ -53324,530 +53366,530 @@
       <c r="B180" s="10">
         <v>179</v>
       </c>
-      <c r="C180" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D180" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F180" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I180" s="48"/>
-      <c r="J180" s="48"/>
+      <c r="C180" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F180" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="63">
         <v>180</v>
       </c>
-      <c r="C181" s="48" t="s">
+      <c r="C181" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D181" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" s="48" t="s">
+      <c r="D181" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F181" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181" s="48"/>
-      <c r="J181" s="48"/>
+      <c r="F181" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I181" s="64"/>
+      <c r="J181" s="64"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="63">
         <v>181</v>
       </c>
-      <c r="C182" s="48" t="s">
+      <c r="C182" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D182" s="48" t="s">
+      <c r="D182" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E182" s="48" t="s">
+      <c r="E182" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F182" s="48" t="s">
+      <c r="F182" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="G182" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I182" s="48"/>
-      <c r="J182" s="48"/>
+      <c r="G182" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I182" s="64"/>
+      <c r="J182" s="64"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="63">
         <v>182</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D183" s="48" t="s">
+      <c r="D183" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F183" s="48" t="s">
+      <c r="F183" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="G183" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I183" s="48"/>
-      <c r="J183" s="48"/>
+      <c r="G183" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" s="64"/>
+      <c r="J183" s="64"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="63">
         <v>183</v>
       </c>
-      <c r="C184" s="48" t="s">
+      <c r="C184" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D184" s="48" t="s">
+      <c r="D184" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E184" s="48" t="s">
+      <c r="E184" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="F184" s="48" t="s">
+      <c r="F184" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="G184" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I184" s="48"/>
-      <c r="J184" s="48"/>
+      <c r="G184" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I184" s="64"/>
+      <c r="J184" s="64"/>
     </row>
     <row r="185" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="63">
         <v>184</v>
       </c>
-      <c r="C185" s="48" t="s">
+      <c r="C185" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D185" s="48" t="s">
+      <c r="D185" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E185" s="48" t="s">
+      <c r="E185" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="F185" s="48" t="s">
+      <c r="F185" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="G185" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I185" s="48"/>
-      <c r="J185" s="48"/>
+      <c r="G185" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="64"/>
+      <c r="J185" s="64"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="63">
         <v>185</v>
       </c>
-      <c r="C186" s="48" t="s">
+      <c r="C186" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D186" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" s="48" t="s">
+      <c r="D186" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="F186" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I186" s="48"/>
-      <c r="J186" s="48"/>
+      <c r="F186" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I186" s="64"/>
+      <c r="J186" s="64"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="63">
         <v>186</v>
       </c>
-      <c r="C187" s="48" t="s">
+      <c r="C187" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" s="48" t="s">
+      <c r="D187" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F187" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I187" s="48"/>
-      <c r="J187" s="48"/>
+      <c r="F187" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I187" s="64"/>
+      <c r="J187" s="64"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="63">
         <v>187</v>
       </c>
-      <c r="C188" s="48" t="s">
+      <c r="C188" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D188" s="48" t="s">
+      <c r="D188" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E188" s="48" t="s">
+      <c r="E188" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F188" s="48" t="s">
+      <c r="F188" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="G188" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H188" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188" s="48"/>
-      <c r="J188" s="48"/>
+      <c r="G188" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I188" s="64"/>
+      <c r="J188" s="64"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="63">
         <v>188</v>
       </c>
-      <c r="C189" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D189" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F189" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H189" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I189" s="48"/>
-      <c r="J189" s="48"/>
+      <c r="C189" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F189" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I189" s="64"/>
+      <c r="J189" s="64"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="16">
         <v>189</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D190" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" s="48" t="s">
+      <c r="D190" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F190" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I190" s="48"/>
-      <c r="J190" s="48"/>
+      <c r="F190" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="16">
         <v>190</v>
       </c>
-      <c r="C191" s="48" t="s">
+      <c r="C191" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="48" t="s">
+      <c r="D191" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="48" t="s">
+      <c r="E191" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F191" s="48" t="s">
+      <c r="F191" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G191" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I191" s="48"/>
-      <c r="J191" s="48"/>
+      <c r="G191" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I191" s="34"/>
+      <c r="J191" s="34"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="16">
         <v>191</v>
       </c>
-      <c r="C192" s="48" t="s">
+      <c r="C192" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D192" s="48" t="s">
+      <c r="D192" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E192" s="48" t="s">
+      <c r="E192" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F192" s="48" t="s">
+      <c r="F192" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G192" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" s="48"/>
-      <c r="J192" s="48"/>
+      <c r="G192" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="16">
         <v>192</v>
       </c>
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D193" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" s="48" t="s">
+      <c r="D193" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="F193" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I193" s="48"/>
-      <c r="J193" s="48"/>
+      <c r="F193" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="16">
         <v>193</v>
       </c>
-      <c r="C194" s="48" t="s">
+      <c r="C194" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D194" s="48" t="s">
+      <c r="D194" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E194" s="48" t="s">
+      <c r="E194" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="F194" s="48" t="s">
+      <c r="F194" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G194" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I194" s="48"/>
-      <c r="J194" s="48"/>
+      <c r="G194" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I194" s="34"/>
+      <c r="J194" s="34"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="16">
         <v>194</v>
       </c>
-      <c r="C195" s="48" t="s">
+      <c r="C195" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D195" s="48" t="s">
+      <c r="D195" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E195" s="48" t="s">
+      <c r="E195" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F195" s="48" t="s">
+      <c r="F195" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="G195" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H195" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195" s="48"/>
-      <c r="J195" s="48"/>
+      <c r="G195" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I195" s="34"/>
+      <c r="J195" s="34"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="16">
         <v>195</v>
       </c>
-      <c r="C196" s="48" t="s">
+      <c r="C196" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D196" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E196" s="48" t="s">
+      <c r="D196" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F196" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I196" s="48"/>
-      <c r="J196" s="48"/>
+      <c r="F196" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I196" s="34"/>
+      <c r="J196" s="34"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="16">
         <v>196</v>
       </c>
-      <c r="C197" s="48" t="s">
+      <c r="C197" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D197" s="48" t="s">
+      <c r="D197" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="48" t="s">
+      <c r="E197" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F197" s="48" t="s">
+      <c r="F197" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G197" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I197" s="48"/>
-      <c r="J197" s="48"/>
+      <c r="G197" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="16">
         <v>197</v>
       </c>
-      <c r="C198" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D198" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E198" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F198" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I198" s="48"/>
-      <c r="J198" s="48"/>
+      <c r="C198" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F198" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Znode9X/TestData/ProductAttributes/ProductAttribute(AddNew)TestData  Main.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttribute(AddNew)TestData  Main.xlsx
@@ -727,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +824,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -879,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,6 +988,13 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WEA198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B58"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,66 +2302,66 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="29">
         <v>24</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="F25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="29">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="29">
         <v>26</v>
       </c>
       <c r="C27" s="48" t="s">
@@ -2369,14 +2382,14 @@
       <c r="H27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="29">
         <v>27</v>
       </c>
       <c r="C28" s="48" t="s">
@@ -2401,10 +2414,10 @@
       <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="29">
         <v>28</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -2429,10 +2442,10 @@
       <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="29">
         <v>29</v>
       </c>
       <c r="C30" s="48" t="s">
@@ -2457,10 +2470,10 @@
       <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="29">
         <v>30</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -2485,10 +2498,10 @@
       <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="29">
         <v>31</v>
       </c>
       <c r="C32" s="48" t="s">
@@ -2513,10 +2526,10 @@
       <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="29">
         <v>32</v>
       </c>
       <c r="C33" s="58" t="s">
@@ -2541,10 +2554,10 @@
       <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="29">
         <v>33</v>
       </c>
       <c r="C34" s="48" t="s">
@@ -2569,10 +2582,10 @@
       <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="72">
         <v>34</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -2597,10 +2610,10 @@
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="72">
         <v>35</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -2625,10 +2638,10 @@
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="72">
         <v>36</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -2653,10 +2666,10 @@
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="72">
         <v>37</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -2681,10 +2694,10 @@
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="72">
         <v>38</v>
       </c>
       <c r="C39" s="25" t="s">
@@ -2709,10 +2722,10 @@
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="72">
         <v>39</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -2737,10 +2750,10 @@
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="70">
         <v>40</v>
       </c>
       <c r="C41" s="30" t="s">
@@ -2765,10 +2778,10 @@
       <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="70">
         <v>41</v>
       </c>
       <c r="C42" s="30" t="s">
@@ -2793,10 +2806,10 @@
       <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="70">
         <v>42</v>
       </c>
       <c r="C43" s="30" t="s">
@@ -2821,10 +2834,10 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="70">
         <v>43</v>
       </c>
       <c r="C44" s="30" t="s">
@@ -2849,10 +2862,10 @@
       <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="70">
         <v>44</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -2877,10 +2890,10 @@
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="70">
         <v>45</v>
       </c>
       <c r="C46" s="30" t="s">
@@ -2905,10 +2918,10 @@
       <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="70">
         <v>46</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -2933,10 +2946,10 @@
       <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="70">
         <v>47</v>
       </c>
       <c r="C48" s="30" t="s">
